--- a/Samples/MsSqlCodeDiffVersioning/MsSqlCodeDiffVersioning.Shared/00.PerfTest/10.Results/PerfTest.Web.IO.xlsx
+++ b/Samples/MsSqlCodeDiffVersioning/MsSqlCodeDiffVersioning.Shared/00.PerfTest/10.Results/PerfTest.Web.IO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGitHub\Microshaoft.Common.Utilities.Net\Samples\MsSqlCodeDiffVersioning\MsSqlCodeDiffVersioning.Shared\00.PerfTest\10.Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314FFF6D-FBEE-46B0-BC0F-B200963E67CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829B72C2-7204-4D92-BD50-07F1F2AF99BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{AE915694-6CCA-43E3-8E29-7965574BE3FB}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="1" xr2:uid="{AE915694-6CCA-43E3-8E29-7965574BE3FB}"/>
   </bookViews>
   <sheets>
     <sheet name="2020-01-30 23" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
   <si>
     <t>WINDOWS</t>
   </si>
@@ -178,6 +178,15 @@
   </si>
   <si>
     <t>2020-02-02 02:38:28.000</t>
+  </si>
+  <si>
+    <t>2020-02-03 01:57:18.000</t>
+  </si>
+  <si>
+    <t>2020-02-03 02:00:34.000</t>
+  </si>
+  <si>
+    <t>2020-02-03 01:49:58.000</t>
   </si>
 </sst>
 </file>
@@ -204,7 +213,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,6 +229,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -265,7 +280,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -277,6 +291,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,27 +617,27 @@
       <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.07421875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.3046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.69140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.69140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.4609375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.84375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.3046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.3046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.84375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="37.07421875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.69140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="22.69140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -673,7 +690,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>43860.961550925924</v>
       </c>
@@ -726,7 +743,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>43860.973136574074</v>
       </c>
@@ -779,7 +796,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>43861.039375</v>
       </c>
@@ -832,7 +849,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>43861.046365740738</v>
       </c>
@@ -893,101 +910,102 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CDA3A2-7FAE-4DCA-B4B0-FAB3062786AF}">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.4609375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.69140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.69140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.3046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.23046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.69140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.4609375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.3046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.23046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.69140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.4609375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.53515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.84375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.53515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.84375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.3046875" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.84375" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="10">
         <v>43863.112268518518</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1035,18 +1053,18 @@
       <c r="Q2" s="1">
         <v>20000</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="10">
         <v>43863.106678240743</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1094,18 +1112,18 @@
       <c r="Q3" s="1">
         <v>10000</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="10">
         <v>43863.112268518518</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1153,18 +1171,18 @@
       <c r="Q4" s="1">
         <v>20000</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="S4" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="10">
         <v>43863.106678240743</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1212,11 +1230,129 @@
       <c r="Q5" s="1">
         <v>10000</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="R5" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="S5" s="11" t="s">
+      <c r="S5" s="10" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13">
+        <v>196</v>
+      </c>
+      <c r="F6" s="13">
+        <v>22.287500000000001</v>
+      </c>
+      <c r="G6" s="13">
+        <v>38.448881</v>
+      </c>
+      <c r="H6" s="13">
+        <v>215.57919999999999</v>
+      </c>
+      <c r="I6" s="13">
+        <v>44.334000000000003</v>
+      </c>
+      <c r="J6" s="13">
+        <v>12.4006436410259</v>
+      </c>
+      <c r="K6" s="13">
+        <v>10000</v>
+      </c>
+      <c r="L6" s="13">
+        <v>9793</v>
+      </c>
+      <c r="M6" s="13">
+        <v>88.13</v>
+      </c>
+      <c r="N6" s="13">
+        <v>13.647593717948199</v>
+      </c>
+      <c r="O6" s="13">
+        <v>63.250168282051803</v>
+      </c>
+      <c r="P6" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>10000</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13">
+        <v>196</v>
+      </c>
+      <c r="F7" s="13">
+        <v>8.6926000000000005</v>
+      </c>
+      <c r="G7" s="13">
+        <v>14.920427999999999</v>
+      </c>
+      <c r="H7" s="13">
+        <v>192.11930000000001</v>
+      </c>
+      <c r="I7" s="13">
+        <v>24.967600000000001</v>
+      </c>
+      <c r="J7" s="13">
+        <v>5.09272201988641</v>
+      </c>
+      <c r="K7" s="13">
+        <v>10000</v>
+      </c>
+      <c r="L7" s="13">
+        <v>9790</v>
+      </c>
+      <c r="M7" s="13">
+        <v>92.54</v>
+      </c>
+      <c r="N7" s="13">
+        <v>4.7349839602271802</v>
+      </c>
+      <c r="O7" s="13">
+        <v>25.105872039772802</v>
+      </c>
+      <c r="P7" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>10000</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Samples/MsSqlCodeDiffVersioning/MsSqlCodeDiffVersioning.Shared/00.PerfTest/10.Results/PerfTest.Web.IO.xlsx
+++ b/Samples/MsSqlCodeDiffVersioning/MsSqlCodeDiffVersioning.Shared/00.PerfTest/10.Results/PerfTest.Web.IO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGitHub\Microshaoft.Common.Utilities.Net\Samples\MsSqlCodeDiffVersioning\MsSqlCodeDiffVersioning.Shared\00.PerfTest\10.Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829B72C2-7204-4D92-BD50-07F1F2AF99BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F03EEEA-DF50-4A01-82D4-1B4D6B759F0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="1" xr2:uid="{AE915694-6CCA-43E3-8E29-7965574BE3FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
   <si>
     <t>WINDOWS</t>
   </si>
@@ -187,6 +187,15 @@
   </si>
   <si>
     <t>2020-02-03 01:49:58.000</t>
+  </si>
+  <si>
+    <t>2020-02-03 02:26:09.000</t>
+  </si>
+  <si>
+    <t>2020-02-03 02:26:31.000</t>
+  </si>
+  <si>
+    <t>2020-02-03 02:30:01.000</t>
   </si>
 </sst>
 </file>
@@ -196,7 +205,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +217,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -266,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -294,6 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -910,13 +927,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CDA3A2-7FAE-4DCA-B4B0-FAB3062786AF}">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1242,63 +1259,63 @@
         <v>39</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="13">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="F6" s="13">
-        <v>22.287500000000001</v>
+        <v>11.3048</v>
       </c>
       <c r="G6" s="13">
-        <v>38.448881</v>
+        <v>27.370142999999999</v>
       </c>
       <c r="H6" s="13">
-        <v>215.57919999999999</v>
+        <v>788.68650000000002</v>
       </c>
       <c r="I6" s="13">
-        <v>44.334000000000003</v>
+        <v>14.844799999999999</v>
       </c>
       <c r="J6" s="13">
-        <v>12.4006436410259</v>
+        <v>17.833967568693101</v>
       </c>
       <c r="K6" s="13">
         <v>10000</v>
       </c>
       <c r="L6" s="13">
-        <v>9793</v>
+        <v>9776</v>
       </c>
       <c r="M6" s="13">
-        <v>88.13</v>
-      </c>
-      <c r="N6" s="13">
-        <v>13.647593717948199</v>
+        <v>92.92</v>
+      </c>
+      <c r="N6" s="15">
+        <v>0</v>
       </c>
       <c r="O6" s="13">
-        <v>63.250168282051803</v>
+        <v>63.038078137386201</v>
       </c>
       <c r="P6" s="13">
-        <v>1</v>
+        <v>10001</v>
       </c>
       <c r="Q6" s="13">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="S6" s="14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>50</v>
@@ -1313,34 +1330,34 @@
         <v>196</v>
       </c>
       <c r="F7" s="13">
-        <v>8.6926000000000005</v>
+        <v>22.287500000000001</v>
       </c>
       <c r="G7" s="13">
-        <v>14.920427999999999</v>
+        <v>38.448881</v>
       </c>
       <c r="H7" s="13">
-        <v>192.11930000000001</v>
+        <v>215.57919999999999</v>
       </c>
       <c r="I7" s="13">
-        <v>24.967600000000001</v>
+        <v>44.334000000000003</v>
       </c>
       <c r="J7" s="13">
-        <v>5.09272201988641</v>
+        <v>12.4006436410259</v>
       </c>
       <c r="K7" s="13">
         <v>10000</v>
       </c>
       <c r="L7" s="13">
-        <v>9790</v>
+        <v>9793</v>
       </c>
       <c r="M7" s="13">
-        <v>92.54</v>
+        <v>88.13</v>
       </c>
       <c r="N7" s="13">
-        <v>4.7349839602271802</v>
+        <v>13.647593717948199</v>
       </c>
       <c r="O7" s="13">
-        <v>25.105872039772802</v>
+        <v>63.250168282051803</v>
       </c>
       <c r="P7" s="13">
         <v>1</v>
@@ -1352,6 +1369,124 @@
         <v>48</v>
       </c>
       <c r="S7" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="13">
+        <v>210</v>
+      </c>
+      <c r="F8" s="13">
+        <v>7.8936999999999999</v>
+      </c>
+      <c r="G8" s="13">
+        <v>16.373159999999999</v>
+      </c>
+      <c r="H8" s="13">
+        <v>450.78440000000001</v>
+      </c>
+      <c r="I8" s="13">
+        <v>11.305899999999999</v>
+      </c>
+      <c r="J8" s="13">
+        <v>9.55310322735399</v>
+      </c>
+      <c r="K8" s="13">
+        <v>10000</v>
+      </c>
+      <c r="L8" s="13">
+        <v>9752</v>
+      </c>
+      <c r="M8" s="13">
+        <v>91.38</v>
+      </c>
+      <c r="N8" s="15">
+        <v>0</v>
+      </c>
+      <c r="O8" s="13">
+        <v>35.479366454708</v>
+      </c>
+      <c r="P8" s="13">
+        <v>10001</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>20000</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13">
+        <v>196</v>
+      </c>
+      <c r="F9" s="13">
+        <v>8.6926000000000005</v>
+      </c>
+      <c r="G9" s="13">
+        <v>14.920427999999999</v>
+      </c>
+      <c r="H9" s="13">
+        <v>192.11930000000001</v>
+      </c>
+      <c r="I9" s="13">
+        <v>24.967600000000001</v>
+      </c>
+      <c r="J9" s="13">
+        <v>5.09272201988641</v>
+      </c>
+      <c r="K9" s="13">
+        <v>10000</v>
+      </c>
+      <c r="L9" s="13">
+        <v>9790</v>
+      </c>
+      <c r="M9" s="13">
+        <v>92.54</v>
+      </c>
+      <c r="N9" s="13">
+        <v>4.7349839602271802</v>
+      </c>
+      <c r="O9" s="13">
+        <v>25.105872039772802</v>
+      </c>
+      <c r="P9" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>10000</v>
+      </c>
+      <c r="R9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="S9" s="14" t="s">
         <v>49</v>
       </c>
     </row>

--- a/Samples/MsSqlCodeDiffVersioning/MsSqlCodeDiffVersioning.Shared/00.PerfTest/10.Results/PerfTest.Web.IO.xlsx
+++ b/Samples/MsSqlCodeDiffVersioning/MsSqlCodeDiffVersioning.Shared/00.PerfTest/10.Results/PerfTest.Web.IO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGitHub\Microshaoft.Common.Utilities.Net\Samples\MsSqlCodeDiffVersioning\MsSqlCodeDiffVersioning.Shared\00.PerfTest\10.Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F03EEEA-DF50-4A01-82D4-1B4D6B759F0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DB7648-51D9-48A4-B651-839CEA4DBD98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="1" xr2:uid="{AE915694-6CCA-43E3-8E29-7965574BE3FB}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="24686" windowHeight="13217" activeTab="1" xr2:uid="{AE915694-6CCA-43E3-8E29-7965574BE3FB}"/>
   </bookViews>
   <sheets>
     <sheet name="2020-01-30 23" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
   <si>
     <t>WINDOWS</t>
   </si>
@@ -196,6 +196,15 @@
   </si>
   <si>
     <t>2020-02-03 02:30:01.000</t>
+  </si>
+  <si>
+    <t>2020-02-03 21:09:34.000</t>
+  </si>
+  <si>
+    <t>2020-02-03 21:26:34.000</t>
+  </si>
+  <si>
+    <t>2020-02-03 21:29:51.000</t>
   </si>
 </sst>
 </file>
@@ -927,13 +936,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CDA3A2-7FAE-4DCA-B4B0-FAB3062786AF}">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M32" sqref="M32"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1490,6 +1499,124 @@
         <v>49</v>
       </c>
     </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>197</v>
+      </c>
+      <c r="F10">
+        <v>24.064699999999998</v>
+      </c>
+      <c r="G10">
+        <v>38.566775999999997</v>
+      </c>
+      <c r="H10">
+        <v>390.90300000000002</v>
+      </c>
+      <c r="I10">
+        <v>30.608699999999999</v>
+      </c>
+      <c r="J10">
+        <v>11.9556281880129</v>
+      </c>
+      <c r="K10">
+        <v>10000</v>
+      </c>
+      <c r="L10">
+        <v>9764</v>
+      </c>
+      <c r="M10">
+        <v>94.74</v>
+      </c>
+      <c r="N10">
+        <v>14.6555196239743</v>
+      </c>
+      <c r="O10">
+        <v>62.478032376025702</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>10000</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="S10" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>197</v>
+      </c>
+      <c r="F11">
+        <v>8.5771999999999995</v>
+      </c>
+      <c r="G11">
+        <v>16.814558000000002</v>
+      </c>
+      <c r="H11">
+        <v>207.0334</v>
+      </c>
+      <c r="I11">
+        <v>15.4856</v>
+      </c>
+      <c r="J11">
+        <v>5.54713267186668</v>
+      </c>
+      <c r="K11">
+        <v>10000</v>
+      </c>
+      <c r="L11">
+        <v>9826</v>
+      </c>
+      <c r="M11">
+        <v>95.59</v>
+      </c>
+      <c r="N11">
+        <v>5.7202926562666399</v>
+      </c>
+      <c r="O11">
+        <v>27.908823343733399</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>10000</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="S11" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Samples/MsSqlCodeDiffVersioning/MsSqlCodeDiffVersioning.Shared/00.PerfTest/10.Results/PerfTest.Web.IO.xlsx
+++ b/Samples/MsSqlCodeDiffVersioning/MsSqlCodeDiffVersioning.Shared/00.PerfTest/10.Results/PerfTest.Web.IO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGitHub\Microshaoft.Common.Utilities.Net\Samples\MsSqlCodeDiffVersioning\MsSqlCodeDiffVersioning.Shared\00.PerfTest\10.Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DB7648-51D9-48A4-B651-839CEA4DBD98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E556D12A-3273-42E9-857B-549FD3808AAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="2640" windowWidth="24686" windowHeight="13217" activeTab="1" xr2:uid="{AE915694-6CCA-43E3-8E29-7965574BE3FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="60">
   <si>
     <t>WINDOWS</t>
   </si>
@@ -205,6 +205,15 @@
   </si>
   <si>
     <t>2020-02-03 21:29:51.000</t>
+  </si>
+  <si>
+    <t>2020-02-03 12:11:07.000</t>
+  </si>
+  <si>
+    <t>2020-02-03 12:11:23.000</t>
+  </si>
+  <si>
+    <t>2020-02-03 12:14:40.000</t>
   </si>
 </sst>
 </file>
@@ -936,13 +945,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CDA3A2-7FAE-4DCA-B4B0-FAB3062786AF}">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1500,121 +1509,239 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>197</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>24.064699999999998</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>38.566775999999997</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>390.90300000000002</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <v>30.608699999999999</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <v>11.9556281880129</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="1">
         <v>10000</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="1">
         <v>9764</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="1">
         <v>94.74</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="1">
         <v>14.6555196239743</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="1">
         <v>62.478032376025702</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="1">
         <v>1</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="1">
         <v>10000</v>
       </c>
-      <c r="R10" s="11" t="s">
+      <c r="R10" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="S10" s="11" t="s">
+      <c r="S10" s="10" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>197</v>
+      </c>
+      <c r="F11" s="1">
+        <v>11.2681</v>
+      </c>
+      <c r="G11" s="13">
+        <v>27.083203000000001</v>
+      </c>
+      <c r="H11" s="1">
+        <v>762.12429999999995</v>
+      </c>
+      <c r="I11" s="1">
+        <v>22.295300000000001</v>
+      </c>
+      <c r="J11" s="1">
+        <v>16.441984200444601</v>
+      </c>
+      <c r="K11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L11" s="1">
+        <v>9753</v>
+      </c>
+      <c r="M11" s="1">
+        <v>92.19</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>59.9671714008892</v>
+      </c>
+      <c r="P11" s="1">
+        <v>10001</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>20000</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E11">
+      <c r="E12" s="1">
         <v>197</v>
       </c>
-      <c r="F11">
+      <c r="F12" s="1">
         <v>8.5771999999999995</v>
       </c>
-      <c r="G11">
+      <c r="G12" s="1">
         <v>16.814558000000002</v>
       </c>
-      <c r="H11">
+      <c r="H12" s="1">
         <v>207.0334</v>
       </c>
-      <c r="I11">
+      <c r="I12" s="1">
         <v>15.4856</v>
       </c>
-      <c r="J11">
+      <c r="J12" s="1">
         <v>5.54713267186668</v>
       </c>
-      <c r="K11">
+      <c r="K12" s="1">
         <v>10000</v>
       </c>
-      <c r="L11">
+      <c r="L12" s="1">
         <v>9826</v>
       </c>
-      <c r="M11">
+      <c r="M12" s="1">
         <v>95.59</v>
       </c>
-      <c r="N11">
+      <c r="N12" s="1">
         <v>5.7202926562666399</v>
       </c>
-      <c r="O11">
+      <c r="O12" s="1">
         <v>27.908823343733399</v>
       </c>
-      <c r="P11">
+      <c r="P12" s="1">
         <v>1</v>
       </c>
-      <c r="Q11">
+      <c r="Q12" s="1">
         <v>10000</v>
       </c>
-      <c r="R11" s="11" t="s">
+      <c r="R12" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="S11" s="11" t="s">
+      <c r="S12" s="10" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>197</v>
+      </c>
+      <c r="F13" s="1">
+        <v>7.9047000000000001</v>
+      </c>
+      <c r="G13" s="1">
+        <v>16.754249000000002</v>
+      </c>
+      <c r="H13" s="1">
+        <v>434.61189999999999</v>
+      </c>
+      <c r="I13" s="1">
+        <v>15.671799999999999</v>
+      </c>
+      <c r="J13" s="1">
+        <v>8.4892353553355004</v>
+      </c>
+      <c r="K13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L13" s="1">
+        <v>9693</v>
+      </c>
+      <c r="M13" s="1">
+        <v>89.94</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>33.732719710670999</v>
+      </c>
+      <c r="P13" s="1">
+        <v>10001</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>20000</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Samples/MsSqlCodeDiffVersioning/MsSqlCodeDiffVersioning.Shared/00.PerfTest/10.Results/PerfTest.Web.IO.xlsx
+++ b/Samples/MsSqlCodeDiffVersioning/MsSqlCodeDiffVersioning.Shared/00.PerfTest/10.Results/PerfTest.Web.IO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGitHub\Microshaoft.Common.Utilities.Net\Samples\MsSqlCodeDiffVersioning\MsSqlCodeDiffVersioning.Shared\00.PerfTest\10.Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E556D12A-3273-42E9-857B-549FD3808AAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABCED9D-A8C9-4DF6-9977-D50C88C1032C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="24686" windowHeight="13217" activeTab="1" xr2:uid="{AE915694-6CCA-43E3-8E29-7965574BE3FB}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="1" xr2:uid="{AE915694-6CCA-43E3-8E29-7965574BE3FB}"/>
   </bookViews>
   <sheets>
     <sheet name="2020-01-30 23" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="66">
   <si>
     <t>WINDOWS</t>
   </si>
@@ -214,6 +214,24 @@
   </si>
   <si>
     <t>2020-02-03 12:14:40.000</t>
+  </si>
+  <si>
+    <t>2020-02-14 16:13:16.000</t>
+  </si>
+  <si>
+    <t>2020-02-14 16:13:31.000</t>
+  </si>
+  <si>
+    <t>2020-02-14 16:16:37.000</t>
+  </si>
+  <si>
+    <t>2020-02-14 15:50:34.000</t>
+  </si>
+  <si>
+    <t>2020-02-14 15:55:54.000</t>
+  </si>
+  <si>
+    <t>2020-02-14 16:11:32.000</t>
   </si>
 </sst>
 </file>
@@ -247,7 +265,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,6 +287,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -329,6 +353,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -945,13 +970,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CDA3A2-7FAE-4DCA-B4B0-FAB3062786AF}">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="G29" sqref="G29:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1744,6 +1769,242 @@
         <v>59</v>
       </c>
     </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>186</v>
+      </c>
+      <c r="F14" s="1">
+        <v>22.872900000000001</v>
+      </c>
+      <c r="G14" s="13">
+        <v>36.615662</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1303.2357999999999</v>
+      </c>
+      <c r="I14" s="1">
+        <v>33.234400000000001</v>
+      </c>
+      <c r="J14" s="1">
+        <v>19.1726780632656</v>
+      </c>
+      <c r="K14" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L14" s="1">
+        <v>9958</v>
+      </c>
+      <c r="M14" s="1">
+        <v>98.74</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>74.961018126531101</v>
+      </c>
+      <c r="P14" s="1">
+        <v>50001</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>60000</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S14" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>938</v>
+      </c>
+      <c r="F15" s="1">
+        <v>23.5837</v>
+      </c>
+      <c r="G15" s="1">
+        <v>36.942379000000003</v>
+      </c>
+      <c r="H15" s="1">
+        <v>302.30290000000002</v>
+      </c>
+      <c r="I15" s="1">
+        <v>34.655500000000004</v>
+      </c>
+      <c r="J15" s="1">
+        <v>7.1221546679003396</v>
+      </c>
+      <c r="K15" s="1">
+        <v>50000</v>
+      </c>
+      <c r="L15" s="1">
+        <v>48568</v>
+      </c>
+      <c r="M15" s="1">
+        <v>92.373999999999995</v>
+      </c>
+      <c r="N15" s="1">
+        <v>22.698069664199299</v>
+      </c>
+      <c r="O15" s="1">
+        <v>51.186688335800703</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>50000</v>
+      </c>
+      <c r="R15" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="S15" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>186</v>
+      </c>
+      <c r="F16" s="1">
+        <v>8.4034999999999993</v>
+      </c>
+      <c r="G16" s="16">
+        <v>17.363766999999999</v>
+      </c>
+      <c r="H16" s="1">
+        <v>369.29349999999999</v>
+      </c>
+      <c r="I16" s="1">
+        <v>18.249700000000001</v>
+      </c>
+      <c r="J16" s="1">
+        <v>6.6196667883959197</v>
+      </c>
+      <c r="K16" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L16" s="1">
+        <v>9910</v>
+      </c>
+      <c r="M16" s="1">
+        <v>96.67</v>
+      </c>
+      <c r="N16" s="1">
+        <v>4.1244334232081696</v>
+      </c>
+      <c r="O16" s="1">
+        <v>30.6031005767918</v>
+      </c>
+      <c r="P16" s="1">
+        <v>50001</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>60000</v>
+      </c>
+      <c r="R16" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="S16" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>938</v>
+      </c>
+      <c r="F17" s="1">
+        <v>8.3904999999999994</v>
+      </c>
+      <c r="G17" s="1">
+        <v>17.590814999999999</v>
+      </c>
+      <c r="H17" s="1">
+        <v>187.09010000000001</v>
+      </c>
+      <c r="I17" s="1">
+        <v>16.457999999999998</v>
+      </c>
+      <c r="J17" s="1">
+        <v>4.3020693030972197</v>
+      </c>
+      <c r="K17" s="1">
+        <v>50000</v>
+      </c>
+      <c r="L17" s="1">
+        <v>48780</v>
+      </c>
+      <c r="M17" s="1">
+        <v>92.87</v>
+      </c>
+      <c r="N17" s="1">
+        <v>8.9866763938055598</v>
+      </c>
+      <c r="O17" s="1">
+        <v>26.194953606194399</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>50000</v>
+      </c>
+      <c r="R17" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="S17" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Samples/MsSqlCodeDiffVersioning/MsSqlCodeDiffVersioning.Shared/00.PerfTest/10.Results/PerfTest.Web.IO.xlsx
+++ b/Samples/MsSqlCodeDiffVersioning/MsSqlCodeDiffVersioning.Shared/00.PerfTest/10.Results/PerfTest.Web.IO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGitHub\Microshaoft.Common.Utilities.Net\Samples\MsSqlCodeDiffVersioning\MsSqlCodeDiffVersioning.Shared\00.PerfTest\10.Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABCED9D-A8C9-4DF6-9977-D50C88C1032C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A459BF-235F-408A-8D1F-E97A71488361}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="1" xr2:uid="{AE915694-6CCA-43E3-8E29-7965574BE3FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="72">
   <si>
     <t>WINDOWS</t>
   </si>
@@ -232,6 +232,24 @@
   </si>
   <si>
     <t>2020-02-14 16:11:32.000</t>
+  </si>
+  <si>
+    <t>2020-02-14 17:02:01.000</t>
+  </si>
+  <si>
+    <t>2020-02-14 17:02:29.000</t>
+  </si>
+  <si>
+    <t>2020-02-14 17:17:24.000</t>
+  </si>
+  <si>
+    <t>2020-02-14 16:56:10.000</t>
+  </si>
+  <si>
+    <t>2020-02-14 16:58:18.000</t>
+  </si>
+  <si>
+    <t>2020-02-14 17:01:17.000</t>
   </si>
 </sst>
 </file>
@@ -970,13 +988,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CDA3A2-7FAE-4DCA-B4B0-FAB3062786AF}">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G29" sqref="G29:G30"/>
+      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2005,6 +2023,242 @@
         <v>65</v>
       </c>
     </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>895</v>
+      </c>
+      <c r="F18" s="1">
+        <v>11.6371</v>
+      </c>
+      <c r="G18" s="13">
+        <v>29.235493999999999</v>
+      </c>
+      <c r="H18" s="1">
+        <v>863.94140000000004</v>
+      </c>
+      <c r="I18" s="1">
+        <v>42.878599999999999</v>
+      </c>
+      <c r="J18" s="1">
+        <v>11.517604183001</v>
+      </c>
+      <c r="K18" s="1">
+        <v>50000</v>
+      </c>
+      <c r="L18" s="1">
+        <v>48349</v>
+      </c>
+      <c r="M18" s="1">
+        <v>91.302000000000007</v>
+      </c>
+      <c r="N18" s="1">
+        <v>6.2002856339979697</v>
+      </c>
+      <c r="O18" s="1">
+        <v>52.270702366001998</v>
+      </c>
+      <c r="P18" s="1">
+        <v>10001</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>60000</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>179</v>
+      </c>
+      <c r="F19" s="1">
+        <v>12.3971</v>
+      </c>
+      <c r="G19" s="13">
+        <v>29.422723000000001</v>
+      </c>
+      <c r="H19" s="1">
+        <v>167.21719999999999</v>
+      </c>
+      <c r="I19" s="1">
+        <v>30.5535</v>
+      </c>
+      <c r="J19" s="1">
+        <v>11.0281454731381</v>
+      </c>
+      <c r="K19" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L19" s="1">
+        <v>9621</v>
+      </c>
+      <c r="M19" s="1">
+        <v>90.67</v>
+      </c>
+      <c r="N19" s="1">
+        <v>7.3664320537238703</v>
+      </c>
+      <c r="O19" s="1">
+        <v>51.479013946276098</v>
+      </c>
+      <c r="P19" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>10000</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="S19" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>895</v>
+      </c>
+      <c r="F20" s="1">
+        <v>8.0002999999999993</v>
+      </c>
+      <c r="G20" s="13">
+        <v>20.249193999999999</v>
+      </c>
+      <c r="H20" s="1">
+        <v>528.86940000000004</v>
+      </c>
+      <c r="I20" s="1">
+        <v>32.2072</v>
+      </c>
+      <c r="J20" s="1">
+        <v>8.5817685567720599</v>
+      </c>
+      <c r="K20" s="1">
+        <v>50000</v>
+      </c>
+      <c r="L20" s="1">
+        <v>48337</v>
+      </c>
+      <c r="M20" s="1">
+        <v>90.436000000000007</v>
+      </c>
+      <c r="N20" s="1">
+        <v>3.08565688645588</v>
+      </c>
+      <c r="O20" s="1">
+        <v>37.412731113544098</v>
+      </c>
+      <c r="P20" s="1">
+        <v>10001</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>60000</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>179</v>
+      </c>
+      <c r="F21" s="1">
+        <v>8.5706000000000007</v>
+      </c>
+      <c r="G21" s="13">
+        <v>20.146238</v>
+      </c>
+      <c r="H21" s="1">
+        <v>154.89930000000001</v>
+      </c>
+      <c r="I21" s="1">
+        <v>21.210899999999999</v>
+      </c>
+      <c r="J21" s="1">
+        <v>8.4306346703687502</v>
+      </c>
+      <c r="K21" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L21" s="1">
+        <v>9624</v>
+      </c>
+      <c r="M21" s="1">
+        <v>90.62</v>
+      </c>
+      <c r="N21" s="1">
+        <v>3.28496865926251</v>
+      </c>
+      <c r="O21" s="1">
+        <v>37.007507340737497</v>
+      </c>
+      <c r="P21" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>10000</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="S21" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Samples/MsSqlCodeDiffVersioning/MsSqlCodeDiffVersioning.Shared/00.PerfTest/10.Results/PerfTest.Web.IO.xlsx
+++ b/Samples/MsSqlCodeDiffVersioning/MsSqlCodeDiffVersioning.Shared/00.PerfTest/10.Results/PerfTest.Web.IO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyGitHub\Microshaoft.Common.Utilities.Net\Samples\MsSqlCodeDiffVersioning\MsSqlCodeDiffVersioning.Shared\00.PerfTest\10.Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A459BF-235F-408A-8D1F-E97A71488361}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C488A9C-52AE-49FF-994E-9977BCC74473}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="1" xr2:uid="{AE915694-6CCA-43E3-8E29-7965574BE3FB}"/>
   </bookViews>
@@ -994,7 +994,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
